--- a/public/Data/UMKM_Gedongan.xlsx
+++ b/public/Data/UMKM_Gedongan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65b1a93d5c226bd7/Documents/SKRIPSI/Kelurahan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8FA584F-523F-438A-8CA9-DE781E3F8496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F8FA584F-523F-438A-8CA9-DE781E3F8496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24772A03-0E80-46FD-B331-08AC8947A42A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E6638E03-E410-4C9D-8BC9-5E642A480BFF}"/>
   </bookViews>
@@ -453,16 +453,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0155C35-67CE-418A-89D6-2462086EC1FC}">
   <dimension ref="B1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,7 +801,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B1" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>21</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>23</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>24</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>25</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>26</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>27</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>29</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>30</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>31</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>33</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>34</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>35</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>36</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>37</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>38</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>39</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>40</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>41</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>42</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>43</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>44</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>45</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>46</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>47</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>48</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>49</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>50</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>51</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>52</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>53</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>54</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>55</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>56</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>57</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>58</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>59</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>60</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>61</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>62</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>63</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>64</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>65</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>66</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>67</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>68</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>69</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>70</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>71</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>72</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>73</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>74</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>74</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>75</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>76</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>77</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>78</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>79</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>80</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>81</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>82</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>83</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>84</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>85</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B86" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>86</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>87</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>88</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B89" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>89</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B90" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>90</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B91" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>91</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B92" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>92</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B93" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>93</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B94" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>94</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B95" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>95</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B96" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>96</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B97" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>97</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B98" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>98</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B99" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>99</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B100" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>100</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B101" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>101</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B102" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>102</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B103" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>103</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B104" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>104</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B105" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>105</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B106" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>106</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B107" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>107</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B108" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>108</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B109" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>109</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B110" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>110</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B111" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>111</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B112" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>112</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B113" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>30</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B114" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>113</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B115" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>114</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B116" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>115</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B117" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>116</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B118" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>117</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B119" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>118</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B120" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>119</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B121" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>120</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B122" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>121</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B123" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>122</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B124" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>123</v>
